--- a/teste/Casos de Testes  Localizar Estacionamento.xlsx
+++ b/teste/Casos de Testes  Localizar Estacionamento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="724"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>CAMPO</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>CT004</t>
+  </si>
+  <si>
+    <t>Visualizar o nome e telefone do estacionamento no mapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posicionar o cursor do mouse sobre o ponto do estacionamento </t>
+  </si>
+  <si>
+    <t>O sistema informa na tela do mapa o nome e telefone do estacionamento.</t>
   </si>
 </sst>
 </file>
@@ -916,96 +928,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,22 +968,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,32 +989,11 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1119,6 +1005,132 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,7 +1548,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1564,31 +1576,31 @@
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="8"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
@@ -1820,29 +1832,29 @@
       <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="66" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="67" t="s">
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="8"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
@@ -2074,25 +2086,25 @@
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
       <c r="S3" s="8"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
@@ -2321,28 +2333,28 @@
       <c r="IJ3" s="16"/>
     </row>
     <row r="4" spans="1:244" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="8"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
@@ -2571,24 +2583,24 @@
       <c r="IJ4" s="16"/>
     </row>
     <row r="5" spans="1:244" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="8"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -3877,34 +3889,36 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:244" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="88"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="8"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -4133,24 +4147,24 @@
       <c r="IJ12" s="7"/>
     </row>
     <row r="13" spans="1:244" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
       <c r="S13" s="8"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -4400,24 +4414,36 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:244" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="A15" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="88"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="8"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -4646,24 +4672,24 @@
       <c r="IJ15" s="7"/>
     </row>
     <row r="16" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -4913,24 +4939,24 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:244" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
       <c r="S18" s="8"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -5159,24 +5185,24 @@
       <c r="IJ18" s="7"/>
     </row>
     <row r="19" spans="1:244" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
       <c r="S19" s="8"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -5693,25 +5719,25 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:244" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -5939,25 +5965,25 @@
       <c r="IJ23" s="7"/>
     </row>
     <row r="24" spans="1:244" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -6474,17 +6500,73 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L5"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="Q2:Q5"/>
     <mergeCell ref="R2:R5"/>
@@ -6501,73 +6583,17 @@
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="N2:N5"/>
     <mergeCell ref="O2:O5"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L5"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="M10:R10 H10">
     <cfRule type="cellIs" priority="5" operator="equal">
@@ -6637,31 +6663,31 @@
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="8"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
@@ -6893,29 +6919,29 @@
       <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="67" t="s">
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="8"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
@@ -7147,25 +7173,25 @@
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
       <c r="S3" s="8"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
@@ -7394,28 +7420,28 @@
       <c r="IJ3" s="16"/>
     </row>
     <row r="4" spans="1:244" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="8"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
@@ -7644,24 +7670,24 @@
       <c r="IJ4" s="16"/>
     </row>
     <row r="5" spans="1:244" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="8"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -8136,19 +8162,19 @@
       <c r="IJ6" s="16"/>
     </row>
     <row r="7" spans="1:244" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="58" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="20"/>
@@ -8392,22 +8418,22 @@
       <c r="IJ7" s="16"/>
     </row>
     <row r="8" spans="1:244" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="13" t="s">
         <v>39</v>
       </c>
@@ -8651,34 +8677,34 @@
       <c r="II8" s="7"/>
       <c r="IJ8" s="7"/>
     </row>
-    <row r="9" spans="1:244" s="83" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="82"/>
+    <row r="9" spans="1:244" s="53" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:244" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="84"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -8920,10 +8946,10 @@
     </row>
     <row r="11" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="106"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8940,26 +8966,26 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:244" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="60" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="8"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -9188,24 +9214,24 @@
       <c r="IJ12" s="7"/>
     </row>
     <row r="13" spans="1:244" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
       <c r="S13" s="8"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -9435,10 +9461,10 @@
     </row>
     <row r="14" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="110"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="111"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -9455,26 +9481,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:244" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="60" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="8"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -9703,24 +9729,24 @@
       <c r="IJ15" s="7"/>
     </row>
     <row r="16" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -9950,10 +9976,10 @@
     </row>
     <row r="17" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="110"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="106"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -9970,26 +9996,26 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:244" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="114"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="55" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
       <c r="S18" s="8"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -10218,24 +10244,24 @@
       <c r="IJ18" s="7"/>
     </row>
     <row r="19" spans="1:244" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="115"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
       <c r="S19" s="8"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -10465,10 +10491,10 @@
     </row>
     <row r="20" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="116"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="117"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -10485,12 +10511,12 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:244" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="118"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="84"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="35"/>
       <c r="H21" s="49"/>
       <c r="I21" s="36"/>
@@ -10732,10 +10758,10 @@
     </row>
     <row r="22" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="116"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="117"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -10752,25 +10778,25 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:244" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -10998,25 +11024,25 @@
       <c r="IJ23" s="7"/>
     </row>
     <row r="24" spans="1:244" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -11245,10 +11271,10 @@
     </row>
     <row r="25" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="116"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="117"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -11265,12 +11291,12 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:244" ht="76.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="118"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="84"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
@@ -11512,10 +11538,10 @@
     </row>
     <row r="27" spans="1:244" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="116"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="117"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -11533,17 +11559,73 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L5"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="Q2:Q5"/>
     <mergeCell ref="R2:R5"/>
@@ -11560,73 +11642,17 @@
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="N2:N5"/>
     <mergeCell ref="O2:O5"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L5"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="M10:R10 H10">
     <cfRule type="cellIs" priority="5" operator="equal">
